--- a/etc/hebrew/dictionary.xlsx
+++ b/etc/hebrew/dictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Domestic\Languages\Hebrew\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A301589E-A258-4ADB-B5BB-024D17B1E882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{919F806F-CA31-45CA-B37C-8A74664B6794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13290" yWindow="4020" windowWidth="13515" windowHeight="15885" xr2:uid="{A8FE7D02-4845-437A-B9BE-6DB9F834D3A1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{A8FE7D02-4845-437A-B9BE-6DB9F834D3A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="414">
   <si>
     <t>english</t>
   </si>
@@ -110,9 +110,6 @@
     <t>sea</t>
   </si>
   <si>
-    <t xml:space="preserve"> מה</t>
-  </si>
-  <si>
     <t>מי</t>
   </si>
   <si>
@@ -293,9 +290,6 @@
     <t>shemesh</t>
   </si>
   <si>
-    <t>tae</t>
-  </si>
-  <si>
     <t>talmid</t>
   </si>
   <si>
@@ -311,9 +305,6 @@
     <t>מורה</t>
   </si>
   <si>
-    <t>morae</t>
-  </si>
-  <si>
     <t>mora</t>
   </si>
   <si>
@@ -476,9 +467,6 @@
     <t>o</t>
   </si>
   <si>
-    <t>aele</t>
-  </si>
-  <si>
     <t>atem</t>
   </si>
   <si>
@@ -566,9 +554,6 @@
     <t>see you</t>
   </si>
   <si>
-    <t>learn</t>
-  </si>
-  <si>
     <t>bread</t>
   </si>
   <si>
@@ -608,9 +593,6 @@
     <t>lehitraot</t>
   </si>
   <si>
-    <t>lomed</t>
-  </si>
-  <si>
     <t>lehem</t>
   </si>
   <si>
@@ -636,6 +618,666 @@
   </si>
   <si>
     <t>toda</t>
+  </si>
+  <si>
+    <t>study</t>
+  </si>
+  <si>
+    <t>loemed</t>
+  </si>
+  <si>
+    <t>עכשיו</t>
+  </si>
+  <si>
+    <t>now</t>
+  </si>
+  <si>
+    <t>achshuv</t>
+  </si>
+  <si>
+    <t>עושה</t>
+  </si>
+  <si>
+    <t>עושה חיים</t>
+  </si>
+  <si>
+    <t>have fun</t>
+  </si>
+  <si>
+    <t>חיים</t>
+  </si>
+  <si>
+    <t>hayam</t>
+  </si>
+  <si>
+    <t>life</t>
+  </si>
+  <si>
+    <t>אבל</t>
+  </si>
+  <si>
+    <t>aval</t>
+  </si>
+  <si>
+    <t>but</t>
+  </si>
+  <si>
+    <t>מה</t>
+  </si>
+  <si>
+    <t>פה</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> po</t>
+  </si>
+  <si>
+    <t>here</t>
+  </si>
+  <si>
+    <t>שותה</t>
+  </si>
+  <si>
+    <t>drink</t>
+  </si>
+  <si>
+    <t>רק</t>
+  </si>
+  <si>
+    <t>rak</t>
+  </si>
+  <si>
+    <t>חבר</t>
+  </si>
+  <si>
+    <t>habar</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>עם</t>
+  </si>
+  <si>
+    <t>im</t>
+  </si>
+  <si>
+    <t>with</t>
+  </si>
+  <si>
+    <t>0 (fem.)</t>
+  </si>
+  <si>
+    <t>1 (fem.)</t>
+  </si>
+  <si>
+    <t>2 (fem.)</t>
+  </si>
+  <si>
+    <t>3 (fem.)</t>
+  </si>
+  <si>
+    <t>4 (fem.)</t>
+  </si>
+  <si>
+    <t>5 (fem.)</t>
+  </si>
+  <si>
+    <t>6 (fem.)</t>
+  </si>
+  <si>
+    <t>7 (fem.)</t>
+  </si>
+  <si>
+    <t>8 (fem.)</t>
+  </si>
+  <si>
+    <t>9 (fem.)</t>
+  </si>
+  <si>
+    <t>10 (fem.)</t>
+  </si>
+  <si>
+    <t>אפס</t>
+  </si>
+  <si>
+    <t>אחת</t>
+  </si>
+  <si>
+    <t>שתיים</t>
+  </si>
+  <si>
+    <t>שלוש</t>
+  </si>
+  <si>
+    <t>ארבע</t>
+  </si>
+  <si>
+    <t>חמש</t>
+  </si>
+  <si>
+    <t>שש</t>
+  </si>
+  <si>
+    <t>שבע</t>
+  </si>
+  <si>
+    <t>שמונה</t>
+  </si>
+  <si>
+    <t>תישע</t>
+  </si>
+  <si>
+    <t>עשר</t>
+  </si>
+  <si>
+    <t>ahat</t>
+  </si>
+  <si>
+    <t>shtaim</t>
+  </si>
+  <si>
+    <t>shalosh</t>
+  </si>
+  <si>
+    <t>arba</t>
+  </si>
+  <si>
+    <t>shesh</t>
+  </si>
+  <si>
+    <t>sheva</t>
+  </si>
+  <si>
+    <t>teisha</t>
+  </si>
+  <si>
+    <t>hamesh</t>
+  </si>
+  <si>
+    <t>shmonæ</t>
+  </si>
+  <si>
+    <t>æsær</t>
+  </si>
+  <si>
+    <t>æle</t>
+  </si>
+  <si>
+    <t>moræ</t>
+  </si>
+  <si>
+    <t>tæ</t>
+  </si>
+  <si>
+    <t>shotæ</t>
+  </si>
+  <si>
+    <t>æfes</t>
+  </si>
+  <si>
+    <t>0 (masc.)</t>
+  </si>
+  <si>
+    <t>1 (masc.)</t>
+  </si>
+  <si>
+    <t>2 (masc.)</t>
+  </si>
+  <si>
+    <t>3 (masc.)</t>
+  </si>
+  <si>
+    <t>4 (masc.)</t>
+  </si>
+  <si>
+    <t>5 (masc.)</t>
+  </si>
+  <si>
+    <t>6 (masc.)</t>
+  </si>
+  <si>
+    <t>7 (masc.)</t>
+  </si>
+  <si>
+    <t>8 (masc.)</t>
+  </si>
+  <si>
+    <t>9 (masc.)</t>
+  </si>
+  <si>
+    <t>10 (masc.)</t>
+  </si>
+  <si>
+    <t>שניים</t>
+  </si>
+  <si>
+    <t>שלושה</t>
+  </si>
+  <si>
+    <t>ארבאע</t>
+  </si>
+  <si>
+    <t>חמישה</t>
+  </si>
+  <si>
+    <t>שישה</t>
+  </si>
+  <si>
+    <t>שבעה</t>
+  </si>
+  <si>
+    <t>תשעה</t>
+  </si>
+  <si>
+    <t>אחד</t>
+  </si>
+  <si>
+    <t>עשרה</t>
+  </si>
+  <si>
+    <t>æhad</t>
+  </si>
+  <si>
+    <t>shnaim</t>
+  </si>
+  <si>
+    <t>shlosha</t>
+  </si>
+  <si>
+    <t>arbaa</t>
+  </si>
+  <si>
+    <t>hamisha</t>
+  </si>
+  <si>
+    <t>shisha</t>
+  </si>
+  <si>
+    <t>shiva</t>
+  </si>
+  <si>
+    <t>shmona</t>
+  </si>
+  <si>
+    <t>tishaa</t>
+  </si>
+  <si>
+    <t>asaraa</t>
+  </si>
+  <si>
+    <t>osæ hayim</t>
+  </si>
+  <si>
+    <t>osæ</t>
+  </si>
+  <si>
+    <t>מתמטיקה</t>
+  </si>
+  <si>
+    <t>matematika</t>
+  </si>
+  <si>
+    <t>mathematics</t>
+  </si>
+  <si>
+    <t>נעים</t>
+  </si>
+  <si>
+    <t>naeem</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>מאוד</t>
+  </si>
+  <si>
+    <t>very</t>
+  </si>
+  <si>
+    <t>meod</t>
+  </si>
+  <si>
+    <t>סטודנט</t>
+  </si>
+  <si>
+    <t>stoodent</t>
+  </si>
+  <si>
+    <t>סטודנטית</t>
+  </si>
+  <si>
+    <t>stoodentit</t>
+  </si>
+  <si>
+    <t>סליחה</t>
+  </si>
+  <si>
+    <t>סרט</t>
+  </si>
+  <si>
+    <t>עוגה</t>
+  </si>
+  <si>
+    <t>עיר</t>
+  </si>
+  <si>
+    <t>salad</t>
+  </si>
+  <si>
+    <t>excuse me</t>
+  </si>
+  <si>
+    <t>film</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>salat</t>
+  </si>
+  <si>
+    <t>sliha</t>
+  </si>
+  <si>
+    <t>seret</t>
+  </si>
+  <si>
+    <t>uga</t>
+  </si>
+  <si>
+    <t>ir</t>
+  </si>
+  <si>
+    <t>סלט</t>
+  </si>
+  <si>
+    <t>לאן</t>
+  </si>
+  <si>
+    <t>where to</t>
+  </si>
+  <si>
+    <t>læan</t>
+  </si>
+  <si>
+    <t>איפה</t>
+  </si>
+  <si>
+    <t>where</t>
+  </si>
+  <si>
+    <t>eyfo</t>
+  </si>
+  <si>
+    <t>הרבה</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>השעה</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>ashaa</t>
+  </si>
+  <si>
+    <t>תפריט</t>
+  </si>
+  <si>
+    <t>menu</t>
+  </si>
+  <si>
+    <t>tafrit</t>
+  </si>
+  <si>
+    <t>מלצר</t>
+  </si>
+  <si>
+    <t>waiter</t>
+  </si>
+  <si>
+    <t>melzer</t>
+  </si>
+  <si>
+    <t>חשבון</t>
+  </si>
+  <si>
+    <t>bill</t>
+  </si>
+  <si>
+    <t>heshbon</t>
+  </si>
+  <si>
+    <t>איך</t>
+  </si>
+  <si>
+    <t>how</t>
+  </si>
+  <si>
+    <t>yech</t>
+  </si>
+  <si>
+    <t>אפשר לקבל</t>
+  </si>
+  <si>
+    <t>efshar lekabel</t>
+  </si>
+  <si>
+    <t>can I get</t>
+  </si>
+  <si>
+    <t>כשר</t>
+  </si>
+  <si>
+    <t>kosher</t>
+  </si>
+  <si>
+    <t>אולי</t>
+  </si>
+  <si>
+    <t>ulay</t>
+  </si>
+  <si>
+    <t>maybe</t>
+  </si>
+  <si>
+    <t>ארץ</t>
+  </si>
+  <si>
+    <t>erets</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>מצוין</t>
+  </si>
+  <si>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>metsuyan</t>
+  </si>
+  <si>
+    <t>restaurant</t>
+  </si>
+  <si>
+    <t>מסעדה</t>
+  </si>
+  <si>
+    <t>misada</t>
+  </si>
+  <si>
+    <t>only, just</t>
+  </si>
+  <si>
+    <t>רק רגע</t>
+  </si>
+  <si>
+    <t>rak rega</t>
+  </si>
+  <si>
+    <t>just a moment</t>
+  </si>
+  <si>
+    <t>רגע</t>
+  </si>
+  <si>
+    <t>moment</t>
+  </si>
+  <si>
+    <t>rega</t>
+  </si>
+  <si>
+    <t>קצת</t>
+  </si>
+  <si>
+    <t>qtsat</t>
+  </si>
+  <si>
+    <t>some</t>
+  </si>
+  <si>
+    <t>נעים תאוד</t>
+  </si>
+  <si>
+    <t>naeem meod</t>
+  </si>
+  <si>
+    <t>nice to meet you</t>
+  </si>
+  <si>
+    <t>do, make</t>
+  </si>
+  <si>
+    <t>harbe</t>
+  </si>
+  <si>
+    <t>משפחה</t>
+  </si>
+  <si>
+    <t>mishpaha</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>סוכר</t>
+  </si>
+  <si>
+    <t>sukar</t>
+  </si>
+  <si>
+    <t>sugar</t>
+  </si>
+  <si>
+    <t>עולם</t>
+  </si>
+  <si>
+    <t>olam</t>
+  </si>
+  <si>
+    <t>world</t>
+  </si>
+  <si>
+    <t>על</t>
+  </si>
+  <si>
+    <t>al</t>
+  </si>
+  <si>
+    <t>about</t>
+  </si>
+  <si>
+    <t>אולפן</t>
+  </si>
+  <si>
+    <t>ulpan</t>
+  </si>
+  <si>
+    <t>אשכולית</t>
+  </si>
+  <si>
+    <t>eshkolit</t>
+  </si>
+  <si>
+    <t>grapefruit</t>
+  </si>
+  <si>
+    <t>בית</t>
+  </si>
+  <si>
+    <t>bayt</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>בסדר</t>
+  </si>
+  <si>
+    <t>beseder</t>
+  </si>
+  <si>
+    <t>כיתה</t>
+  </si>
+  <si>
+    <t>kita</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>near</t>
+  </si>
+  <si>
+    <t>ליד</t>
+  </si>
+  <si>
+    <t>leyad</t>
+  </si>
+  <si>
+    <t>גמל</t>
+  </si>
+  <si>
+    <t>gamal</t>
+  </si>
+  <si>
+    <t>camel</t>
+  </si>
+  <si>
+    <t>זית</t>
+  </si>
+  <si>
+    <t>olive</t>
+  </si>
+  <si>
+    <t>date (fruit)</t>
+  </si>
+  <si>
+    <t>תמר</t>
+  </si>
+  <si>
+    <t>tamar</t>
+  </si>
+  <si>
+    <t>alright</t>
+  </si>
+  <si>
+    <t>הכול</t>
+  </si>
+  <si>
+    <t>everything</t>
+  </si>
+  <si>
+    <t>??</t>
   </si>
 </sst>
 </file>
@@ -734,9 +1376,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -745,6 +1384,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1080,768 +1722,1585 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88E70FE0-7374-4B0C-A2C0-7164BED57451}">
-  <dimension ref="A1:C68"/>
+  <dimension ref="A1:C142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+    <sheetView tabSelected="1" topLeftCell="A114" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C142" sqref="C142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.42578125" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>17</v>
+        <v>98</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>99</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
+        <v>207</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>10</v>
+        <v>127</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>13</v>
+        <v>260</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>16</v>
+        <v>223</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>19</v>
+        <v>340</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>22</v>
+        <v>2</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>28</v>
+        <v>323</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>29</v>
+        <v>101</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>30</v>
+        <v>44</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>31</v>
+        <v>45</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>53</v>
+        <v>128</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>54</v>
+        <v>131</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>55</v>
+        <v>5</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>56</v>
+        <v>222</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>57</v>
+        <v>259</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>113</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>58</v>
+        <v>344</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>59</v>
+        <v>263</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>52</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>60</v>
+        <v>226</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>51</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>61</v>
+        <v>8</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>71</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>79</v>
+        <v>11</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>72</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>80</v>
+        <v>129</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>73</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>81</v>
+        <v>130</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>74</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>82</v>
+        <v>46</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>114</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>83</v>
+        <v>47</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>75</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>84</v>
+        <v>132</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>76</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>85</v>
+        <v>104</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>77</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>86</v>
+        <v>133</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>78</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>87</v>
+        <v>48</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>89</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>89</v>
+        <v>107</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>94</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>91</v>
+        <v>14</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>93</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>92</v>
+        <v>110</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>97</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>96</v>
+        <v>134</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>98</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>99</v>
+        <v>135</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>101</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>103</v>
+        <v>49</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>104</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>106</v>
+        <v>326</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>107</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>109</v>
+        <v>328</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>110</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>112</v>
+        <v>136</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>130</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>145</v>
+        <v>137</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>131</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>146</v>
+        <v>138</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>132</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>147</v>
+        <v>139</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>133</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>148</v>
+        <v>218</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>134</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>149</v>
+        <v>204</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>135</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>150</v>
+        <v>140</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>136</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>151</v>
+        <v>264</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>137</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>152</v>
+        <v>227</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>138</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>153</v>
+        <v>337</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>139</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>139</v>
+        <v>141</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>140</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>154</v>
+        <v>169</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>141</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>155</v>
+        <v>20</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>142</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>156</v>
+        <v>51</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>143</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>157</v>
+        <v>50</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>144</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>158</v>
+        <v>23</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>173</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>187</v>
+        <v>94</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>174</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>188</v>
+        <v>87</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>175</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>189</v>
+        <v>346</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>176</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>190</v>
+        <v>170</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>177</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>191</v>
+        <v>320</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>178</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>192</v>
+        <v>171</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>179</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>180</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>194</v>
+        <v>172</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>181</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>195</v>
+        <v>173</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>182</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>182</v>
+        <v>298</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>183</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>196</v>
+        <v>70</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>184</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>197</v>
+        <v>31</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>185</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>198</v>
+        <v>91</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>186</v>
-      </c>
-      <c r="B68" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="C68" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>32</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>174</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>33</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>175</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>334</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>176</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>71</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>293</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>34</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>296</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>76</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>77</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>308</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>309</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>310</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>311</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>372</v>
+      </c>
+      <c r="B85" s="5" t="s">
         <v>199</v>
       </c>
+      <c r="C85" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>201</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>312</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>197</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>221</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>232</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>269</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>211</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>177</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>178</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>359</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>229</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>266</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>213</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>72</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>265</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>73</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>179</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>225</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>262</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>111</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>230</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>267</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>74</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>261</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>180</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>228</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>224</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>75</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>181</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>95</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>231</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>76</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>77</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>331</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>268</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>349</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>352</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>354</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>356</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>362</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>364</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>368</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>371</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>376</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>379</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>382</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="C131" s="6" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>385</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="C132" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>387</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="C133" s="6" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>390</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>393</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="C135" s="6" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>410</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="C136" s="6" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>398</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="C137" s="6" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>399</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="C138" s="6" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>404</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="C139" s="6" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>406</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="C140" s="6" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>407</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="C141" s="6" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>412</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="C142" s="6" t="s">
+        <v>413</v>
+      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C120">
+    <sortCondition ref="B2:B120"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2095,20 +3554,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="7b346f1e-6070-4a9a-92ec-6c7b47c0557f" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="7b346f1e-6070-4a9a-92ec-6c7b47c0557f" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2131,6 +3590,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F5F80BA-2735-4A42-8804-4D8DEDBED21F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B126531C-9085-487C-9E05-A6B6E168F902}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -2145,12 +3612,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F5F80BA-2735-4A42-8804-4D8DEDBED21F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/etc/hebrew/dictionary.xlsx
+++ b/etc/hebrew/dictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Domestic\Languages\Hebrew\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{919F806F-CA31-45CA-B37C-8A74664B6794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67D9AB48-BF35-41DD-9409-0B560A610975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{A8FE7D02-4845-437A-B9BE-6DB9F834D3A1}"/>
+    <workbookView xWindow="8430" yWindow="2505" windowWidth="23010" windowHeight="17220" xr2:uid="{A8FE7D02-4845-437A-B9BE-6DB9F834D3A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="574">
   <si>
     <t>english</t>
   </si>
@@ -632,9 +632,6 @@
     <t>now</t>
   </si>
   <si>
-    <t>achshuv</t>
-  </si>
-  <si>
     <t>עושה</t>
   </si>
   <si>
@@ -1271,13 +1268,496 @@
     <t>alright</t>
   </si>
   <si>
-    <t>הכול</t>
-  </si>
-  <si>
     <t>everything</t>
   </si>
   <si>
-    <t>??</t>
+    <t>מאיפה</t>
+  </si>
+  <si>
+    <t>from where</t>
+  </si>
+  <si>
+    <t>me eifo</t>
+  </si>
+  <si>
+    <t>מחשב</t>
+  </si>
+  <si>
+    <t>computer</t>
+  </si>
+  <si>
+    <t>mahshev</t>
+  </si>
+  <si>
+    <t>מכתב</t>
+  </si>
+  <si>
+    <t>letter</t>
+  </si>
+  <si>
+    <t>miktav</t>
+  </si>
+  <si>
+    <t>מלון</t>
+  </si>
+  <si>
+    <t>malon</t>
+  </si>
+  <si>
+    <t>hotel</t>
+  </si>
+  <si>
+    <t>akshav</t>
+  </si>
+  <si>
+    <t>קורא</t>
+  </si>
+  <si>
+    <t>קפה</t>
+  </si>
+  <si>
+    <t>שיעור</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>café</t>
+  </si>
+  <si>
+    <t>lesson</t>
+  </si>
+  <si>
+    <t>qore</t>
+  </si>
+  <si>
+    <t>qafe</t>
+  </si>
+  <si>
+    <t>shiur</t>
+  </si>
+  <si>
+    <t>כותב</t>
+  </si>
+  <si>
+    <t>kotev</t>
+  </si>
+  <si>
+    <t>write</t>
+  </si>
+  <si>
+    <t>the Knesset</t>
+  </si>
+  <si>
+    <t>הכנסת</t>
+  </si>
+  <si>
+    <t>ha-kneset</t>
+  </si>
+  <si>
+    <t>בוקר</t>
+  </si>
+  <si>
+    <t>ערב</t>
+  </si>
+  <si>
+    <t>morning</t>
+  </si>
+  <si>
+    <t>evening</t>
+  </si>
+  <si>
+    <t>boker</t>
+  </si>
+  <si>
+    <t>erev</t>
+  </si>
+  <si>
+    <t>אֲנָשִׁים</t>
+  </si>
+  <si>
+    <t>anashim</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>הכל</t>
+  </si>
+  <si>
+    <t>hakol</t>
+  </si>
+  <si>
+    <t>zit</t>
+  </si>
+  <si>
+    <t>זכר</t>
+  </si>
+  <si>
+    <t>zakhar</t>
+  </si>
+  <si>
+    <t>masculine</t>
+  </si>
+  <si>
+    <t>נקבה</t>
+  </si>
+  <si>
+    <t>feminine</t>
+  </si>
+  <si>
+    <t>nekeva</t>
+  </si>
+  <si>
+    <t>מתי</t>
+  </si>
+  <si>
+    <t>matai</t>
+  </si>
+  <si>
+    <t>when</t>
+  </si>
+  <si>
+    <t>קם</t>
+  </si>
+  <si>
+    <t>kam</t>
+  </si>
+  <si>
+    <t>stand up, wake up</t>
+  </si>
+  <si>
+    <t>שומע</t>
+  </si>
+  <si>
+    <t>shomea</t>
+  </si>
+  <si>
+    <t>hear</t>
+  </si>
+  <si>
+    <t>סלון</t>
+  </si>
+  <si>
+    <t>living room</t>
+  </si>
+  <si>
+    <t>salon</t>
+  </si>
+  <si>
+    <t>שולחן</t>
+  </si>
+  <si>
+    <t>table</t>
+  </si>
+  <si>
+    <t>shulhan</t>
+  </si>
+  <si>
+    <t>דירה</t>
+  </si>
+  <si>
+    <t>apartment</t>
+  </si>
+  <si>
+    <t>dira</t>
+  </si>
+  <si>
+    <t>שירותים</t>
+  </si>
+  <si>
+    <t>toilets</t>
+  </si>
+  <si>
+    <t>shirutim</t>
+  </si>
+  <si>
+    <t>מקלחת</t>
+  </si>
+  <si>
+    <t>shower</t>
+  </si>
+  <si>
+    <t>meklahat</t>
+  </si>
+  <si>
+    <t>נוסע</t>
+  </si>
+  <si>
+    <t>travel</t>
+  </si>
+  <si>
+    <t>nosea</t>
+  </si>
+  <si>
+    <t>ישר</t>
+  </si>
+  <si>
+    <t>straight</t>
+  </si>
+  <si>
+    <t>yashar</t>
+  </si>
+  <si>
+    <t>לך</t>
+  </si>
+  <si>
+    <t>go (imperative)</t>
+  </si>
+  <si>
+    <t>leha</t>
+  </si>
+  <si>
+    <t>ימין</t>
+  </si>
+  <si>
+    <t>right (side)</t>
+  </si>
+  <si>
+    <t>rightwards</t>
+  </si>
+  <si>
+    <t>ימינה</t>
+  </si>
+  <si>
+    <t>yamin</t>
+  </si>
+  <si>
+    <t>yamina</t>
+  </si>
+  <si>
+    <t>left (side)</t>
+  </si>
+  <si>
+    <t>שמאל</t>
+  </si>
+  <si>
+    <t>smol'</t>
+  </si>
+  <si>
+    <t>leftwards</t>
+  </si>
+  <si>
+    <t>שמאלה</t>
+  </si>
+  <si>
+    <t>smola</t>
+  </si>
+  <si>
+    <t>חדר</t>
+  </si>
+  <si>
+    <t>room</t>
+  </si>
+  <si>
+    <t>heder</t>
+  </si>
+  <si>
+    <t>מבין</t>
+  </si>
+  <si>
+    <t>mevin</t>
+  </si>
+  <si>
+    <t>understand</t>
+  </si>
+  <si>
+    <t>מבטא</t>
+  </si>
+  <si>
+    <t>mivta</t>
+  </si>
+  <si>
+    <t>accent</t>
+  </si>
+  <si>
+    <t>דבר</t>
+  </si>
+  <si>
+    <t>talk</t>
+  </si>
+  <si>
+    <t>deber</t>
+  </si>
+  <si>
+    <t>אליי</t>
+  </si>
+  <si>
+    <t>to me</t>
+  </si>
+  <si>
+    <t>elay</t>
+  </si>
+  <si>
+    <t>כל הקטע</t>
+  </si>
+  <si>
+    <t>kol' haketa</t>
+  </si>
+  <si>
+    <t>the whole thing</t>
+  </si>
+  <si>
+    <t>מתפספס</t>
+  </si>
+  <si>
+    <t>mitfasfes</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>תחושה</t>
+  </si>
+  <si>
+    <t>tkhusha</t>
+  </si>
+  <si>
+    <t>feeling</t>
+  </si>
+  <si>
+    <t>כולם</t>
+  </si>
+  <si>
+    <t>kulam</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>היום</t>
+  </si>
+  <si>
+    <t>hayom</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>יום</t>
+  </si>
+  <si>
+    <t>yom</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>בלי</t>
+  </si>
+  <si>
+    <t>without</t>
+  </si>
+  <si>
+    <t>bli</t>
+  </si>
+  <si>
+    <t>תשוקה</t>
+  </si>
+  <si>
+    <t>tshuka</t>
+  </si>
+  <si>
+    <t>passion</t>
+  </si>
+  <si>
+    <t>חֲלוֹם</t>
+  </si>
+  <si>
+    <t>halom</t>
+  </si>
+  <si>
+    <t>dream</t>
+  </si>
+  <si>
+    <t>אוהל</t>
+  </si>
+  <si>
+    <t>ohel</t>
+  </si>
+  <si>
+    <t>tent</t>
+  </si>
+  <si>
+    <t>קטן</t>
+  </si>
+  <si>
+    <t>katan</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>עבודה</t>
+  </si>
+  <si>
+    <t>avoda</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>כסף</t>
+  </si>
+  <si>
+    <t>kesef</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>כמה</t>
+  </si>
+  <si>
+    <t>kama</t>
+  </si>
+  <si>
+    <t>how many</t>
+  </si>
+  <si>
+    <t>כל</t>
+  </si>
+  <si>
+    <t>kol'</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>יקר</t>
+  </si>
+  <si>
+    <t>yakar</t>
+  </si>
+  <si>
+    <t>expensive</t>
+  </si>
+  <si>
+    <t>כיף</t>
+  </si>
+  <si>
+    <t>kef</t>
+  </si>
+  <si>
+    <t>fun</t>
+  </si>
+  <si>
+    <t>נכון</t>
+  </si>
+  <si>
+    <t>nahon</t>
+  </si>
+  <si>
+    <t>right (correct)</t>
+  </si>
+  <si>
+    <t>שקט</t>
+  </si>
+  <si>
+    <t>sheket</t>
+  </si>
+  <si>
+    <t>quiet</t>
   </si>
 </sst>
 </file>
@@ -1368,7 +1848,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1384,9 +1864,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1722,17 +2199,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88E70FE0-7374-4B0C-A2C0-7164BED57451}">
-  <dimension ref="A1:C142"/>
+  <dimension ref="A1:C196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C142" sqref="C142"/>
+    <sheetView tabSelected="1" topLeftCell="A177" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1759,1547 +2236,2141 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>207</v>
+        <v>447</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>205</v>
+        <v>445</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>206</v>
+        <v>446</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>127</v>
+        <v>206</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>112</v>
+        <v>204</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>142</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>260</v>
+        <v>127</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>277</v>
+        <v>112</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>279</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>223</v>
+        <v>546</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>234</v>
+        <v>544</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>244</v>
+        <v>545</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>2</v>
+        <v>386</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>17</v>
+        <v>385</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>3</v>
+        <v>386</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>323</v>
+        <v>259</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>322</v>
+        <v>276</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>324</v>
+        <v>278</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>101</v>
+        <v>222</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>102</v>
+        <v>233</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>103</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>339</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>35</v>
+        <v>338</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>52</v>
+        <v>340</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>53</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>128</v>
+        <v>322</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>113</v>
+        <v>321</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>254</v>
+        <v>323</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>145</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>222</v>
+        <v>45</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>233</v>
+        <v>36</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>258</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>259</v>
+        <v>128</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>233</v>
+        <v>113</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>344</v>
+        <v>515</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>342</v>
+        <v>514</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>343</v>
+        <v>516</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>263</v>
+        <v>131</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>272</v>
+        <v>116</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>282</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>226</v>
+        <v>5</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>237</v>
+        <v>6</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>247</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>8</v>
+        <v>221</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>9</v>
+        <v>232</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>10</v>
+        <v>257</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>258</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>12</v>
+        <v>232</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>13</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>129</v>
+        <v>343</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>114</v>
+        <v>341</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>143</v>
+        <v>342</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>130</v>
+        <v>262</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>115</v>
+        <v>271</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>144</v>
+        <v>281</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>225</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>37</v>
+        <v>236</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>54</v>
+        <v>246</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>351</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>38</v>
+        <v>349</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>55</v>
+        <v>350</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>132</v>
+        <v>389</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>117</v>
+        <v>387</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>146</v>
+        <v>388</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>104</v>
+        <v>8</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>133</v>
+        <v>11</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>118</v>
+        <v>12</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>147</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>48</v>
+        <v>129</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>39</v>
+        <v>114</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>56</v>
+        <v>143</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>14</v>
+        <v>441</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>15</v>
+        <v>439</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>16</v>
+        <v>443</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>110</v>
+        <v>392</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>40</v>
+        <v>390</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>57</v>
+        <v>391</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>134</v>
+        <v>536</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>119</v>
+        <v>535</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>148</v>
+        <v>537</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>135</v>
+        <v>409</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>120</v>
+        <v>393</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>149</v>
+        <v>394</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>326</v>
+        <v>47</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>325</v>
+        <v>38</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>373</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>328</v>
+        <v>403</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>327</v>
+        <v>401</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>329</v>
+        <v>402</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>150</v>
+        <v>106</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>139</v>
+        <v>512</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>124</v>
+        <v>511</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>152</v>
+        <v>513</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>218</v>
+        <v>48</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>216</v>
+        <v>39</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>217</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>204</v>
+        <v>473</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>202</v>
+        <v>472</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>203</v>
+        <v>474</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>140</v>
+        <v>107</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>153</v>
+        <v>109</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>264</v>
+        <v>14</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>273</v>
+        <v>15</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>283</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>227</v>
+        <v>531</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>238</v>
+        <v>529</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>251</v>
+        <v>530</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>337</v>
+        <v>110</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>336</v>
+        <v>40</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>338</v>
+        <v>57</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>141</v>
+        <v>410</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>126</v>
+        <v>448</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>154</v>
+        <v>449</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>169</v>
+        <v>436</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>155</v>
+        <v>437</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>182</v>
+        <v>438</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>20</v>
+        <v>134</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>18</v>
+        <v>119</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>19</v>
+        <v>148</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>135</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>42</v>
+        <v>120</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>59</v>
+        <v>149</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>23</v>
+        <v>325</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>21</v>
+        <v>324</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>22</v>
+        <v>372</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>94</v>
+        <v>327</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>92</v>
+        <v>326</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>93</v>
+        <v>328</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>87</v>
+        <v>136</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>87</v>
+        <v>136</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>346</v>
+        <v>137</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>345</v>
+        <v>122</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>346</v>
+        <v>150</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>170</v>
+        <v>138</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>156</v>
+        <v>123</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>183</v>
+        <v>151</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>320</v>
+        <v>139</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>319</v>
+        <v>124</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>321</v>
+        <v>152</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>171</v>
+        <v>405</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>157</v>
+        <v>404</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>184</v>
+        <v>450</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>194</v>
+        <v>453</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>158</v>
+        <v>451</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>195</v>
+        <v>452</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>172</v>
+        <v>543</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>159</v>
+        <v>541</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>185</v>
+        <v>542</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>173</v>
+        <v>217</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>160</v>
+        <v>215</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>186</v>
+        <v>216</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>298</v>
+        <v>503</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>297</v>
+        <v>502</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>299</v>
+        <v>504</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>70</v>
+        <v>203</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>61</v>
+        <v>201</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>78</v>
+        <v>202</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>31</v>
+        <v>140</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>208</v>
+        <v>125</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>27</v>
+        <v>153</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>91</v>
+        <v>263</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>88</v>
+        <v>272</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>255</v>
+        <v>282</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>90</v>
+        <v>226</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>88</v>
+        <v>237</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>89</v>
+        <v>250</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>32</v>
+        <v>336</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>24</v>
+        <v>335</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>28</v>
+        <v>337</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>174</v>
+        <v>141</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>161</v>
+        <v>126</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>187</v>
+        <v>154</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>33</v>
+        <v>534</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>25</v>
+        <v>532</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>29</v>
+        <v>533</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>334</v>
+        <v>20</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>333</v>
+        <v>18</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>335</v>
+        <v>19</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>176</v>
+        <v>51</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>163</v>
+        <v>42</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>189</v>
+        <v>59</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>293</v>
+        <v>23</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>291</v>
+        <v>21</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>292</v>
+        <v>22</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>34</v>
+        <v>491</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>26</v>
+        <v>490</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>30</v>
+        <v>494</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>296</v>
+        <v>492</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>294</v>
+        <v>493</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>295</v>
+        <v>495</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>76</v>
+        <v>564</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>300</v>
+        <v>562</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>301</v>
+        <v>563</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>302</v>
+        <v>92</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>303</v>
+        <v>93</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>308</v>
+        <v>485</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>318</v>
+        <v>484</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>313</v>
+        <v>486</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>309</v>
+        <v>87</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>304</v>
+        <v>86</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>314</v>
+        <v>87</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>310</v>
+        <v>528</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>305</v>
+        <v>526</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>315</v>
+        <v>527</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>311</v>
+        <v>435</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>306</v>
+        <v>433</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>316</v>
+        <v>434</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>372</v>
+        <v>567</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>199</v>
+        <v>565</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>290</v>
+        <v>566</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>201</v>
+        <v>397</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>200</v>
+        <v>395</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>289</v>
+        <v>396</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>312</v>
+        <v>561</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>307</v>
+        <v>559</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>317</v>
+        <v>560</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>197</v>
+        <v>519</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>196</v>
+        <v>517</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>198</v>
+        <v>518</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>221</v>
+        <v>558</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>219</v>
+        <v>556</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>220</v>
+        <v>557</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>232</v>
+        <v>555</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>243</v>
+        <v>553</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>253</v>
+        <v>554</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>269</v>
+        <v>345</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>278</v>
+        <v>344</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>288</v>
+        <v>345</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>211</v>
+        <v>170</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>209</v>
+        <v>156</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>210</v>
+        <v>183</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>177</v>
+        <v>319</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>164</v>
+        <v>318</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>177</v>
+        <v>320</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>359</v>
+        <v>194</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>214</v>
+        <v>158</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>229</v>
+        <v>172</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>240</v>
+        <v>159</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>249</v>
+        <v>185</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>266</v>
+        <v>398</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>275</v>
+        <v>399</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>285</v>
+        <v>400</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>213</v>
+        <v>173</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>212</v>
+        <v>160</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>257</v>
+        <v>186</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>72</v>
+        <v>488</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>63</v>
+        <v>487</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>80</v>
+        <v>489</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>265</v>
+        <v>297</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>274</v>
+        <v>296</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>284</v>
+        <v>298</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>179</v>
+        <v>412</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>166</v>
+        <v>411</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>191</v>
+        <v>413</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>225</v>
+        <v>510</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>236</v>
+        <v>508</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>246</v>
+        <v>509</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>262</v>
+        <v>507</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>271</v>
+        <v>505</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>281</v>
+        <v>506</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>111</v>
+        <v>31</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>65</v>
+        <v>207</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>82</v>
+        <v>27</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>230</v>
+        <v>91</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>241</v>
+        <v>88</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>267</v>
+        <v>90</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>241</v>
+        <v>88</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>286</v>
+        <v>89</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>74</v>
+        <v>415</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>66</v>
+        <v>414</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>83</v>
+        <v>416</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>261</v>
+        <v>32</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>270</v>
+        <v>24</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>280</v>
+        <v>28</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>228</v>
+        <v>33</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>239</v>
+        <v>25</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>248</v>
+        <v>29</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>224</v>
+        <v>418</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>235</v>
+        <v>417</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>245</v>
+        <v>419</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>75</v>
+        <v>422</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>67</v>
+        <v>420</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>256</v>
+        <v>421</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>95</v>
+        <v>333</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>97</v>
+        <v>332</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>96</v>
+        <v>334</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>231</v>
+        <v>176</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>242</v>
+        <v>163</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>250</v>
+        <v>189</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>76</v>
+        <v>355</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>68</v>
+        <v>356</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>84</v>
+        <v>357</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>77</v>
+        <v>353</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>69</v>
+        <v>352</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>85</v>
+        <v>354</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>331</v>
+        <v>479</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>330</v>
+        <v>478</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>332</v>
+        <v>480</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>268</v>
+        <v>71</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>276</v>
+        <v>62</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>287</v>
+        <v>79</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>349</v>
+        <v>375</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>347</v>
+        <v>373</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>348</v>
+        <v>374</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>352</v>
+        <v>459</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>350</v>
+        <v>457</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>351</v>
+        <v>458</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>354</v>
+        <v>292</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>353</v>
+        <v>290</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>355</v>
+        <v>291</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>356</v>
+        <v>34</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>357</v>
+        <v>26</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>358</v>
+        <v>30</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>362</v>
+        <v>522</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>360</v>
+        <v>520</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>361</v>
+        <v>521</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>364</v>
+        <v>482</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>363</v>
+        <v>481</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>365</v>
+        <v>483</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>368</v>
+        <v>570</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>366</v>
+        <v>568</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>367</v>
+        <v>569</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>371</v>
+        <v>295</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>369</v>
+        <v>293</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>370</v>
+        <v>294</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>379</v>
+        <v>455</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="C130" s="6" t="s">
-        <v>378</v>
+        <v>454</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="C131" s="6" t="s">
-        <v>381</v>
+        <v>376</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>385</v>
+        <v>76</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="C132" s="6" t="s">
-        <v>384</v>
+        <v>299</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>387</v>
+        <v>77</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>386</v>
-      </c>
-      <c r="C133" s="6" t="s">
-        <v>387</v>
+        <v>301</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>390</v>
+        <v>467</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="C134" s="6" t="s">
-        <v>389</v>
+        <v>466</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>393</v>
+        <v>307</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="C135" s="6" t="s">
-        <v>392</v>
+        <v>317</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>410</v>
+        <v>308</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>394</v>
-      </c>
-      <c r="C136" s="6" t="s">
-        <v>395</v>
+        <v>303</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>398</v>
+        <v>309</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>396</v>
-      </c>
-      <c r="C137" s="6" t="s">
-        <v>397</v>
+        <v>304</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>399</v>
+        <v>552</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>400</v>
-      </c>
-      <c r="C138" s="6" t="s">
-        <v>401</v>
+        <v>550</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>404</v>
+        <v>310</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="C139" s="6" t="s">
-        <v>403</v>
+        <v>305</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>406</v>
+        <v>381</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="C140" s="6" t="s">
-        <v>413</v>
+        <v>379</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>407</v>
+        <v>371</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>408</v>
-      </c>
-      <c r="C141" s="6" t="s">
-        <v>409</v>
+        <v>198</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>412</v>
+        <v>200</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>411</v>
-      </c>
-      <c r="C142" s="6" t="s">
-        <v>413</v>
+        <v>199</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>311</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>197</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>384</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>384</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>220</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>442</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>231</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>268</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>210</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>427</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>549</v>
+      </c>
+      <c r="B153" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>462</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>428</v>
+      </c>
+      <c r="B155" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>367</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>363</v>
+      </c>
+      <c r="B157" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>177</v>
+      </c>
+      <c r="B158" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>178</v>
+      </c>
+      <c r="B159" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>358</v>
+      </c>
+      <c r="B160" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>361</v>
+      </c>
+      <c r="B161" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>228</v>
+      </c>
+      <c r="B162" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>265</v>
+      </c>
+      <c r="B163" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>470</v>
+      </c>
+      <c r="B164" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>465</v>
+      </c>
+      <c r="B165" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>212</v>
+      </c>
+      <c r="B166" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>429</v>
+      </c>
+      <c r="B167" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>72</v>
+      </c>
+      <c r="B168" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>476</v>
+      </c>
+      <c r="B169" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>264</v>
+      </c>
+      <c r="B170" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>73</v>
+      </c>
+      <c r="B171" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>179</v>
+      </c>
+      <c r="B172" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>224</v>
+      </c>
+      <c r="B173" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>261</v>
+      </c>
+      <c r="B174" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>111</v>
+      </c>
+      <c r="B175" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>496</v>
+      </c>
+      <c r="B176" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>499</v>
+      </c>
+      <c r="B177" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>229</v>
+      </c>
+      <c r="B178" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>266</v>
+      </c>
+      <c r="B179" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>74</v>
+      </c>
+      <c r="B180" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>260</v>
+      </c>
+      <c r="B181" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>573</v>
+      </c>
+      <c r="B182" s="5" t="s">
+        <v>571</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>180</v>
+      </c>
+      <c r="B183" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>227</v>
+      </c>
+      <c r="B184" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>223</v>
+      </c>
+      <c r="B185" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>75</v>
+      </c>
+      <c r="B186" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>181</v>
+      </c>
+      <c r="B187" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>525</v>
+      </c>
+      <c r="B188" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>95</v>
+      </c>
+      <c r="B189" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>230</v>
+      </c>
+      <c r="B190" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>76</v>
+      </c>
+      <c r="B191" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>77</v>
+      </c>
+      <c r="B192" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>406</v>
+      </c>
+      <c r="B193" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>330</v>
+      </c>
+      <c r="B194" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>540</v>
+      </c>
+      <c r="B195" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>267</v>
+      </c>
+      <c r="B196" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>286</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C120">
-    <sortCondition ref="B2:B120"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C196">
+    <sortCondition ref="B2:B196"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3554,20 +4625,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="7b346f1e-6070-4a9a-92ec-6c7b47c0557f" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="7b346f1e-6070-4a9a-92ec-6c7b47c0557f" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3590,14 +4661,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F5F80BA-2735-4A42-8804-4D8DEDBED21F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B126531C-9085-487C-9E05-A6B6E168F902}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -3612,4 +4675,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F5F80BA-2735-4A42-8804-4D8DEDBED21F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>